--- a/_PowerPoints/2nd Semester/Unit 8 Bridge Building/A3 Projects/Summative Sheet Bridge.xlsx
+++ b/_PowerPoints/2nd Semester/Unit 8 Bridge Building/A3 Projects/Summative Sheet Bridge.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
   <si>
     <t xml:space="preserve">Used Classtime Appropriately </t>
   </si>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,11 +480,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1512,20 +1510,24 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
@@ -1533,25 +1535,31 @@
         <v>4</v>
       </c>
       <c r="J32" s="8"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="23">
+        <v>3.5</v>
+      </c>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
@@ -1559,12 +1567,14 @@
         <v>4</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="23"/>
+      <c r="K33" s="23">
+        <v>3.5</v>
+      </c>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1576,8 +1586,12 @@
       <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
@@ -1585,12 +1599,14 @@
         <v>4</v>
       </c>
       <c r="J34" s="22"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="23">
+        <v>3.5</v>
+      </c>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1602,21 +1618,27 @@
       <c r="E35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
       <c r="I35" s="1">
         <v>4</v>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="23"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="23">
+        <v>3.5</v>
+      </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>40</v>
@@ -1632,7 +1654,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1664,7 +1686,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1696,7 +1718,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1728,7 +1750,7 @@
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="1" t="s">

--- a/_PowerPoints/2nd Semester/Unit 8 Bridge Building/A3 Projects/Summative Sheet Bridge.xlsx
+++ b/_PowerPoints/2nd Semester/Unit 8 Bridge Building/A3 Projects/Summative Sheet Bridge.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
   <si>
     <t xml:space="preserve">Used Classtime Appropriately </t>
   </si>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,8 +878,12 @@
         <v>39</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" s="1">
         <v>40</v>
       </c>
@@ -900,8 +904,12 @@
         <v>39</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H6" s="1">
         <v>40</v>
       </c>
@@ -922,8 +930,12 @@
         <v>39</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="1">
         <v>40</v>
       </c>
@@ -944,8 +956,12 @@
         <v>39</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="1">
         <v>40</v>
       </c>
@@ -966,8 +982,12 @@
         <v>39</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="H9" s="18">
         <v>40</v>
       </c>
@@ -988,8 +1008,12 @@
         <v>39</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" s="1">
         <v>40</v>
       </c>

--- a/_PowerPoints/2nd Semester/Unit 8 Bridge Building/A3 Projects/Summative Sheet Bridge.xlsx
+++ b/_PowerPoints/2nd Semester/Unit 8 Bridge Building/A3 Projects/Summative Sheet Bridge.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t xml:space="preserve">Used Classtime Appropriately </t>
   </si>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,7 +877,9 @@
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
@@ -887,9 +889,13 @@
       <c r="H5" s="1">
         <v>40</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="16">
+        <v>4</v>
+      </c>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -903,7 +909,9 @@
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
@@ -913,9 +921,13 @@
       <c r="H6" s="1">
         <v>40</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="16">
+        <v>4</v>
+      </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -929,7 +941,9 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
@@ -939,9 +953,13 @@
       <c r="H7" s="1">
         <v>40</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="16">
+        <v>4</v>
+      </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -955,7 +973,9 @@
       <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
@@ -965,9 +985,13 @@
       <c r="H8" s="1">
         <v>40</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="16">
+        <v>4</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -981,7 +1005,9 @@
       <c r="D9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="18" t="s">
         <v>39</v>
       </c>
@@ -991,9 +1017,13 @@
       <c r="H9" s="18">
         <v>40</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>4</v>
+      </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="16">
+        <v>3</v>
+      </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1007,7 +1037,9 @@
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1017,9 +1049,13 @@
       <c r="H10" s="1">
         <v>40</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="16">
+        <v>3</v>
+      </c>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1396,12 +1432,18 @@
         <v>41</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1416,12 +1458,18 @@
         <v>41</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1436,12 +1484,18 @@
         <v>41</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -1456,12 +1510,18 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1476,12 +1536,18 @@
         <v>41</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
